--- a/output/vignettes_EN.xlsx
+++ b/output/vignettes_EN.xlsx
@@ -74,7 +74,7 @@
     <t>45 years old.</t>
   </si>
   <si>
-    <t>35 years old.</t>
+    <t>25 years old.</t>
   </si>
   <si>
     <t>65 years old.</t>
@@ -203,13 +203,13 @@
     <t>Person A is a man and is 45 years old. He was born in Syria, came to Germany and is a devout Christian. Person A has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the left. To person A it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person B is a man and is 35 years old. He was born in Germany, has German parents and is a devout Christian. Person B did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically as uninterested. To person B it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person B is a man and is 25 years old. He was born in Germany, has German parents and is a devout Christian. Person B did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically as uninterested. To person B it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person C is a woman and is 65 years old. She was born in Syria, came to Germany and is a devout Jew. Person C did an apprenticeship after finishing secondary school, is unemployed and has a monthly income of 850€ at her disposal. She sees herself politically standing on the left. To person C it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person D is a woman and is 35 years old. She was born in Germany, has Turkish parents and is a devout Christian. Person D has studied at university after graduating from high school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing in the middle. To person D it is important to reach personal achievements and to be in charge.</t>
+    <t>Person D is a woman and is 25 years old. She was born in Germany, has Turkish parents and is a devout Christian. Person D has studied at university after graduating from high school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing in the middle. To person D it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
     <t>Person E is a man and is 65 years old. He was born in Germany, has German parents and is a devout Muslim Person E has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the right. To person E it is important to reach personal achievements and to be in charge.</t>
@@ -218,7 +218,7 @@
     <t>Person F is a woman and is 45 years old. She was born in Syria, came to Germany and is a devout Muslim Person F has studied at university after graduating from high school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing in the middle. To person F it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person G is a man and is 35 years old. He was born in Germany, has Turkish parents and is a devout Jew. Person G has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing on the right. To person G it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person G is a man and is 25 years old. He was born in Germany, has Turkish parents and is a devout Jew. Person G has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing on the right. To person G it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
     <t>Person H is a woman and is 45 years old. She was born in Germany, has Turkish parents and is not religious. Person H has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the right. To person H it is important to feel safe, to fit in with others and to respect traditions.</t>
@@ -242,10 +242,10 @@
     <t>Person D is a man and is 45 years old. He was born in Germany, has Turkish parents and is a devout Muslim Person D has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person D it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person E is a woman and is 35 years old. She was born in Germany, has German parents and is not religious. Person E did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing in the middle. To person E it is important to make your own decisions and lead an entertaining and adventurous life.</t>
-  </si>
-  <si>
-    <t>Person F is a man and is 35 years old. He was born in Germany, has Turkish parents and is a devout Jew. Person F has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the right. To person F it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person E is a woman and is 25 years old. She was born in Germany, has German parents and is not religious. Person E did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing in the middle. To person E it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+  </si>
+  <si>
+    <t>Person F is a man and is 25 years old. He was born in Germany, has Turkish parents and is a devout Jew. Person F has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the right. To person F it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
     <t>Person G is a woman and is 65 years old. She was born in Germany, has Turkish parents and is a devout Christian. Person G has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the right. To person G it is important to being tolerant and to help people around.</t>
@@ -254,13 +254,13 @@
     <t>Person H is a woman and is 65 years old. She was born in Syria, came to Germany and is a devout Christian. Person H has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically as uninterested. To person H it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
-    <t>Person I is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Muslim Person I did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the left. To person I it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person I is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Muslim Person I did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the left. To person I it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person J is a man and is 45 years old. He was born in Germany, has German parents and is a devout Muslim Person J did an apprenticeship after finishing secondary school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically as uninterested. To person J it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person A is a man and is 35 years old. He was born in Germany, has Turkish parents and is a devout Muslim Person A has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the left. To person A it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person A is a man and is 25 years old. He was born in Germany, has Turkish parents and is a devout Muslim Person A has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the left. To person A it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person B is a woman and is 65 years old. She was born in Syria, came to Germany and is a devout Jew. Person B has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the left. To person B it is important to being tolerant and to help people around.</t>
@@ -269,7 +269,7 @@
     <t>Person C is a woman and is 65 years old. She was born in Germany, has Turkish parents and is a devout Christian. Person C did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the right. To person C it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person D is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Jew. Person D has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the right. To person D it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person D is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Jew. Person D has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the right. To person D it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
     <t>Person E is a woman and is 45 years old. She was born in Syria, came to Germany and is a devout Jew. Person E has studied at university after graduating from high school, is employed full-time and has a monthly income of 850€ at her disposal. She sees herself politically as uninterested. To person E it is important to reach personal achievements and to be in charge.</t>
@@ -281,22 +281,22 @@
     <t>Person G is a man and is 45 years old. He was born in Germany, has Turkish parents and is a devout Muslim Person G did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at his disposal. He sees himself politically standing in the middle. To person G it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person H is a woman and is 35 years old. She was born in Germany, has German parents and is not religious. Person H has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing in the middle. To person H it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person H is a woman and is 25 years old. She was born in Germany, has German parents and is not religious. Person H has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing in the middle. To person H it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
     <t>Person I is a man and is 65 years old. He was born in Germany, has German parents and is a devout Christian. Person I has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 850€ at his disposal. He sees himself politically as uninterested. To person I it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
-    <t>Person J is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Muslim Person J did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the right. To person J it is important to reach personal achievements and to be in charge.</t>
-  </si>
-  <si>
-    <t>Person A is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Jew. Person A did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the left. To person A it is important to being tolerant and to help people around.</t>
+    <t>Person J is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Muslim Person J did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the right. To person J it is important to reach personal achievements and to be in charge.</t>
+  </si>
+  <si>
+    <t>Person A is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Jew. Person A did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the left. To person A it is important to being tolerant and to help people around.</t>
   </si>
   <si>
     <t>Person B is a man and is 45 years old. He was born in Germany, has Turkish parents and is not religious. Person B did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the right. To person B it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
-    <t>Person C is a man and is 35 years old. He was born in Germany, has Turkish parents and is a devout Muslim Person C has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing on the left. To person C it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person C is a man and is 25 years old. He was born in Germany, has Turkish parents and is a devout Muslim Person C has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing on the left. To person C it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person D is a woman and is 65 years old. She was born in Germany, has Turkish parents and is a devout Jew. Person D has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing in the middle. To person D it is important to feel safe, to fit in with others and to respect traditions.</t>
@@ -317,19 +317,19 @@
     <t>Person I is a woman and is 45 years old. She was born in Syria, came to Germany and is a devout Christian. Person I has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing on the left. To person I it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person J is a man and is 35 years old. He was born in Syria, came to Germany and is not religious. Person J has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at his disposal. He sees himself politically as uninterested. To person J it is important to being tolerant and to help people around.</t>
-  </si>
-  <si>
-    <t>Person A is a man and is 35 years old. He was born in Germany, has German parents and is a devout Muslim Person A did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing on the right. To person A it is important to reach personal achievements and to be in charge.</t>
-  </si>
-  <si>
-    <t>Person B is a woman and is 35 years old. She was born in Syria, came to Germany and is a devout Muslim Person B did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the left. To person B it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person J is a man and is 25 years old. He was born in Syria, came to Germany and is not religious. Person J has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at his disposal. He sees himself politically as uninterested. To person J it is important to being tolerant and to help people around.</t>
+  </si>
+  <si>
+    <t>Person A is a man and is 25 years old. He was born in Germany, has German parents and is a devout Muslim Person A did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing on the right. To person A it is important to reach personal achievements and to be in charge.</t>
+  </si>
+  <si>
+    <t>Person B is a woman and is 25 years old. She was born in Syria, came to Germany and is a devout Muslim Person B did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the left. To person B it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person C is a woman and is 65 years old. She was born in Syria, came to Germany and is not religious. Person C has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing in the middle. To person C it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person D is a woman and is 35 years old. She was born in Germany, has Turkish parents and is a devout Jew. Person D has studied at university after graduating from high school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing on the right. To person D it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person D is a woman and is 25 years old. She was born in Germany, has Turkish parents and is a devout Jew. Person D has studied at university after graduating from high school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing on the right. To person D it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
     <t>Person E is a man and is 65 years old. He was born in Germany, has Turkish parents and is not religious. Person E has studied at university after graduating from high school, is unemployed and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the left. To person E it is important to reach personal achievements and to be in charge.</t>
@@ -344,7 +344,7 @@
     <t>Person H is a woman and is 45 years old. She was born in Germany, has Turkish parents and is a devout Muslim Person H has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing in the middle. To person H it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person I is a man and is 35 years old. He was born in Syria, came to Germany and is not religious. Person I did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically as uninterested. To person I it is important to being tolerant and to help people around.</t>
+    <t>Person I is a man and is 25 years old. He was born in Syria, came to Germany and is not religious. Person I did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically as uninterested. To person I it is important to being tolerant and to help people around.</t>
   </si>
   <si>
     <t>Person J is a man and is 45 years old. He was born in Germany, has German parents and is a devout Jew. Person J has studied at university after graduating from high school, is a homemaker and has a monthly income of 6,000€ at his disposal. He sees himself politically standing in the middle. To person J it is important to feel safe, to fit in with others and to respect traditions.</t>
@@ -356,7 +356,7 @@
     <t>Person B is a woman and is 65 years old. She was born in Germany, has Turkish parents and is not religious. Person B did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the left. To person B it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
-    <t>Person C is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Jew. Person C has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the right. To person C it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person C is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Jew. Person C has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the right. To person C it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
     <t>Person D is a man and is 65 years old. He was born in Syria, came to Germany and is a devout Jew. Person D has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the left. To person D it is important to being tolerant and to help people around.</t>
@@ -377,19 +377,19 @@
     <t>Person I is a man and is 65 years old. He was born in Germany, has German parents and is a devout Muslim Person I has studied at university after graduating from high school, is employed full-time and has a monthly income of 6,000€ at his disposal. He sees himself politically as uninterested. To person I it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person J is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Christian. Person J has studied at university after graduating from high school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person J it is important to reach personal achievements and to be in charge.</t>
+    <t>Person J is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Christian. Person J has studied at university after graduating from high school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person J it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
     <t>Person A is a man and is 65 years old. He was born in Syria, came to Germany and is a devout Muslim Person A has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the right. To person A it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
-    <t>Person B is a man and is 35 years old. He was born in Germany, has Turkish parents and is a devout Christian. Person B has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing in the middle. To person B it is important to reach personal achievements and to be in charge.</t>
+    <t>Person B is a man and is 25 years old. He was born in Germany, has Turkish parents and is a devout Christian. Person B has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing in the middle. To person B it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
     <t>Person C is a woman and is 45 years old. She was born in Germany, has German parents and is a devout Jew. Person C did an apprenticeship after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing in the middle. To person C it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
-    <t>Person D is a woman and is 35 years old. She was born in Germany, has German parents and is not religious. Person D has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically as uninterested. To person D it is important to being tolerant and to help people around.</t>
+    <t>Person D is a woman and is 25 years old. She was born in Germany, has German parents and is not religious. Person D has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically as uninterested. To person D it is important to being tolerant and to help people around.</t>
   </si>
   <si>
     <t>Person E is a woman and is 45 years old. She was born in Syria, came to Germany and is not religious. Person E has studied at university after graduating from high school, is employed full-time and has a monthly income of 850€ at her disposal. She sees herself politically standing on the right. To person E it is important to feel safe, to fit in with others and to respect traditions.</t>
@@ -401,7 +401,7 @@
     <t>Person G is a man and is 65 years old. He was born in Syria, came to Germany and is a devout Jew. Person G did an apprenticeship after finishing secondary school, is unemployed and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the left. To person G it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person H is a man and is 35 years old. He was born in Germany, has Turkish parents and is a devout Christian. Person H has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person H it is important to reach personal achievements and to be in charge.</t>
+    <t>Person H is a man and is 25 years old. He was born in Germany, has Turkish parents and is a devout Christian. Person H has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person H it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
     <t>Person I is a woman and is 45 years old. She was born in Germany, has German parents and is not religious. Person I has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the right. To person I it is important to feel safe, to fit in with others and to respect traditions.</t>
@@ -416,7 +416,7 @@
     <t>Person B is a man and is 45 years old. He was born in Germany, has Turkish parents and is a devout Jew. Person B did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at his disposal. He sees himself politically as uninterested. To person B it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
-    <t>Person C is a woman and is 35 years old. She was born in Germany, has Turkish parents and is not religious. Person C has studied at university after graduating from high school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically as uninterested. To person C it is important to being tolerant and to help people around.</t>
+    <t>Person C is a woman and is 25 years old. She was born in Germany, has Turkish parents and is not religious. Person C has studied at university after graduating from high school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically as uninterested. To person C it is important to being tolerant and to help people around.</t>
   </si>
   <si>
     <t>Person D is a man and is 45 years old. He was born in Germany, has German parents and is a devout Christian. Person D did an apprenticeship after finishing secondary school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing on the right. To person D it is important to being tolerant and to help people around.</t>
@@ -425,25 +425,25 @@
     <t>Person E is a man and is 65 years old. He was born in Germany, has German parents and is not religious. Person E has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person E it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person F is a woman and is 35 years old. She was born in Germany, has Turkish parents and is a devout Muslim Person F has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the left. To person F it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person F is a woman and is 25 years old. She was born in Germany, has Turkish parents and is a devout Muslim Person F has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the left. To person F it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person G is a man and is 45 years old. He was born in Syria, came to Germany and is a devout Muslim Person G has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at his disposal. He sees himself politically standing in the middle. To person G it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person H is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Jew. Person H has studied at university after graduating from high school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing on the right. To person H it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person H is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Jew. Person H has studied at university after graduating from high school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing on the right. To person H it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
     <t>Person I is a woman and is 65 years old. She was born in Syria, came to Germany and is a devout Muslim Person I has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the right. To person I it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
-    <t>Person J is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Christian. Person J did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically as uninterested. To person J it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person J is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Christian. Person J did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically as uninterested. To person J it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person A is a man and is 65 years old. He was born in Germany, has Turkish parents and is a devout Muslim Person A has studied at university after graduating from high school, is unemployed and has a monthly income of 2,500€ at his disposal. He sees himself politically as uninterested. To person A it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person B is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Christian. Person B has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at his disposal. He sees himself politically standing in the middle. To person B it is important to reach personal achievements and to be in charge.</t>
+    <t>Person B is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Christian. Person B has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at his disposal. He sees himself politically standing in the middle. To person B it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
     <t>Person C is a woman and is 65 years old. She was born in Germany, has Turkish parents and is a devout Muslim Person C has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically as uninterested. To person C it is important to make your own decisions and lead an entertaining and adventurous life.</t>
@@ -461,10 +461,10 @@
     <t>Person G is a woman and is 45 years old. She was born in Syria, came to Germany and is not religious. Person G has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing on the right. To person G it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
-    <t>Person H is a man and is 35 years old. He was born in Germany, has German parents and is a devout Jew. Person H did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing on the left. To person H it is important to being tolerant and to help people around.</t>
-  </si>
-  <si>
-    <t>Person I is a woman and is 35 years old. She was born in Syria, came to Germany and is a devout Christian. Person I did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically standing in the middle. To person I it is important to reach personal achievements and to be in charge.</t>
+    <t>Person H is a man and is 25 years old. He was born in Germany, has German parents and is a devout Jew. Person H did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing on the left. To person H it is important to being tolerant and to help people around.</t>
+  </si>
+  <si>
+    <t>Person I is a woman and is 25 years old. She was born in Syria, came to Germany and is a devout Christian. Person I did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically standing in the middle. To person I it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
     <t>Person J is a woman and is 45 years old. She was born in Syria, came to Germany and is a devout Jew. Person J has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically as uninterested. To person J it is important to reach personal achievements and to be in charge.</t>
@@ -479,16 +479,16 @@
     <t>Person C is a woman and is 65 years old. She was born in Germany, has Turkish parents and is a devout Muslim Person C did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically as uninterested. To person C it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person D is a woman and is 35 years old. She was born in Germany, has Turkish parents and is a devout Muslim Person D has studied at university after graduating from high school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing on the left. To person D it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person D is a woman and is 25 years old. She was born in Germany, has Turkish parents and is a devout Muslim Person D has studied at university after graduating from high school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing on the left. To person D it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person E is a man and is 45 years old. He was born in Germany, has German parents and is a devout Jew. Person E did an apprenticeship after finishing secondary school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person E it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
-    <t>Person F is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Christian. Person F did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing in the middle. To person F it is important to reach personal achievements and to be in charge.</t>
-  </si>
-  <si>
-    <t>Person G is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Jew. Person G has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the left. To person G it is important to being tolerant and to help people around.</t>
+    <t>Person F is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Christian. Person F did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing in the middle. To person F it is important to reach personal achievements and to be in charge.</t>
+  </si>
+  <si>
+    <t>Person G is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Jew. Person G has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the left. To person G it is important to being tolerant and to help people around.</t>
   </si>
   <si>
     <t>Person H is a woman and is 45 years old. She was born in Syria, came to Germany and is not religious. Person H has studied at university after graduating from high school, is employed full-time and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the right. To person H it is important to feel safe, to fit in with others and to respect traditions.</t>
@@ -503,10 +503,10 @@
     <t>Person B is a man and is 45 years old. He was born in Syria, came to Germany and is not religious. Person B has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the right. To person B it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
-    <t>Person C is a woman and is 35 years old. She was born in Germany, has Turkish parents and is a devout Christian. Person C has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at her disposal. She sees herself politically standing in the middle. To person C it is important to reach personal achievements and to be in charge.</t>
-  </si>
-  <si>
-    <t>Person D is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Muslim Person D has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the left. To person D it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person C is a woman and is 25 years old. She was born in Germany, has Turkish parents and is a devout Christian. Person C has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at her disposal. She sees herself politically standing in the middle. To person C it is important to reach personal achievements and to be in charge.</t>
+  </si>
+  <si>
+    <t>Person D is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Muslim Person D has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the left. To person D it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person E is a man and is 45 years old. He was born in Germany, has Turkish parents and is a devout Christian. Person E did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the left. To person E it is important to make your own decisions and lead an entertaining and adventurous life.</t>
@@ -515,7 +515,7 @@
     <t>Person F is a man and is 65 years old. He was born in Germany, has German parents and is a devout Jew. Person F has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 850€ at his disposal. He sees himself politically standing on the left. To person F it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person G is a man and is 35 years old. He was born in Syria, came to Germany and is not religious. Person G has studied at university after graduating from high school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically as uninterested. To person G it is important to being tolerant and to help people around.</t>
+    <t>Person G is a man and is 25 years old. He was born in Syria, came to Germany and is not religious. Person G has studied at university after graduating from high school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically as uninterested. To person G it is important to being tolerant and to help people around.</t>
   </si>
   <si>
     <t>Person H is a woman and is 65 years old. She was born in Syria, came to Germany and is not religious. Person H did an apprenticeship after finishing secondary school, is unemployed and has a monthly income of 850€ at her disposal. She sees herself politically standing in the middle. To person H it is important to make your own decisions and lead an entertaining and adventurous life.</t>
@@ -524,19 +524,19 @@
     <t>Person I is a woman and is 45 years old. She was born in Germany, has German parents and is a devout Jew. Person I has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at her disposal. She sees herself politically as uninterested. To person I it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
-    <t>Person A is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Muslim Person A has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the right. To person A it is important to reach personal achievements and to be in charge.</t>
+    <t>Person A is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Muslim Person A has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the right. To person A it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
     <t>Person B is a woman and is 45 years old. She was born in Germany, has Turkish parents and is a devout Christian. Person B has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing on the left. To person B it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person C is a man and is 35 years old. He was born in Germany, has Turkish parents and is not religious. Person C has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically as uninterested. To person C it is important to being tolerant and to help people around.</t>
+    <t>Person C is a man and is 25 years old. He was born in Germany, has Turkish parents and is not religious. Person C has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically as uninterested. To person C it is important to being tolerant and to help people around.</t>
   </si>
   <si>
     <t>Person D is a woman and is 65 years old. She was born in Germany, has German parents and is not religious. Person D has studied at university after graduating from high school, is employed full-time and has a monthly income of 850€ at her disposal. She sees herself politically standing on the left. To person D it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
-    <t>Person E is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Jew. Person E did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the right. To person E it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person E is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Jew. Person E did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the right. To person E it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
     <t>Person F is a man and is 45 years old. He was born in Germany, has German parents and is a devout Muslim Person F has studied at university after graduating from high school, is a homemaker and has a monthly income of 6,000€ at his disposal. He sees himself politically as uninterested. To person F it is important to make your own decisions and lead an entertaining and adventurous life.</t>
@@ -551,13 +551,13 @@
     <t>Person I is a woman and is 45 years old. She was born in Syria, came to Germany and is a devout Muslim Person I has studied at university after graduating from high school, is employed full-time and has a monthly income of 850€ at her disposal. She sees herself politically standing in the middle. To person I it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person A is a woman and is 35 years old. She was born in Germany, has Turkish parents and is not religious. Person A has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at her disposal. She sees herself politically as uninterested. To person A it is important to being tolerant and to help people around.</t>
-  </si>
-  <si>
-    <t>Person B is a man and is 35 years old. He was born in Germany, has German parents and is not religious. Person B did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person B it is important to make your own decisions and lead an entertaining and adventurous life.</t>
-  </si>
-  <si>
-    <t>Person C is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Muslim Person C has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the left. To person C it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person A is a woman and is 25 years old. She was born in Germany, has Turkish parents and is not religious. Person A has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at her disposal. She sees herself politically as uninterested. To person A it is important to being tolerant and to help people around.</t>
+  </si>
+  <si>
+    <t>Person B is a man and is 25 years old. He was born in Germany, has German parents and is not religious. Person B did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 850€ at his disposal. He sees himself politically standing in the middle. To person B it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+  </si>
+  <si>
+    <t>Person C is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Muslim Person C has studied at university after graduating from high school, is unemployed and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the left. To person C it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person D is a woman and is 65 years old. She was born in Germany, has Turkish parents and is a devout Jew. Person D did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing in the middle. To person D it is important to feel safe, to fit in with others and to respect traditions.</t>
@@ -581,7 +581,7 @@
     <t>Person A is a man and is 65 years old. He was born in Germany, has German parents and is a devout Muslim Person A has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 850€ at his disposal. He sees himself politically standing on the right. To person A it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
-    <t>Person B is a man and is 35 years old. He was born in Germany, has Turkish parents and is not religious. Person B has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically as uninterested. To person B it is important to being tolerant and to help people around.</t>
+    <t>Person B is a man and is 25 years old. He was born in Germany, has Turkish parents and is not religious. Person B has studied at university after graduating from high school, is a homemaker and has a monthly income of 2,500€ at his disposal. He sees himself politically as uninterested. To person B it is important to being tolerant and to help people around.</t>
   </si>
   <si>
     <t>Person C is a man and is 45 years old. He was born in Germany, has Turkish parents and is a devout Muslim Person C did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at his disposal. He sees himself politically standing in the middle. To person C it is important to being tolerant and to help people around.</t>
@@ -599,13 +599,13 @@
     <t>Person G is a woman and is 65 years old. She was born in Germany, has German parents and is a devout Jew. Person G has studied at university after graduating from high school, is employed full-time and has a monthly income of 850€ at her disposal. She sees herself politically standing in the middle. To person G it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
-    <t>Person H is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Christian. Person H has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically as uninterested. To person H it is important to feel safe, to fit in with others and to respect traditions.</t>
-  </si>
-  <si>
-    <t>Person I is a woman and is 35 years old. She was born in Syria, came to Germany and is a devout Jew. Person I did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the right. To person I it is important to make your own decisions and lead an entertaining and adventurous life.</t>
-  </si>
-  <si>
-    <t>Person A is a man and is 35 years old. He was born in Syria, came to Germany and is a devout Muslim Person A has studied at university after graduating from high school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing on the left. To person A it is important to feel safe, to fit in with others and to respect traditions.</t>
+    <t>Person H is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Christian. Person H has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 6,000€ at her disposal. She sees herself politically as uninterested. To person H it is important to feel safe, to fit in with others and to respect traditions.</t>
+  </si>
+  <si>
+    <t>Person I is a woman and is 25 years old. She was born in Syria, came to Germany and is a devout Jew. Person I did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the right. To person I it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+  </si>
+  <si>
+    <t>Person A is a man and is 25 years old. He was born in Syria, came to Germany and is a devout Muslim Person A has studied at university after graduating from high school, is unemployed and has a monthly income of 850€ at his disposal. He sees himself politically standing on the left. To person A it is important to feel safe, to fit in with others and to respect traditions.</t>
   </si>
   <si>
     <t>Person B is a man and is 45 years old. He was born in Germany, has German parents and is not religious. Person B has studied at university after graduating from high school, is a homemaker and has a monthly income of 6,000€ at his disposal. He sees himself politically standing on the left. To person B it is important to reach personal achievements and to be in charge.</t>
@@ -617,7 +617,7 @@
     <t>Person D is a woman and is 65 years old. She was born in Germany, has German parents and is a devout Muslim Person D has studied at university after graduating from high school, is employed full-time and has a monthly income of 850€ at her disposal. She sees herself politically as uninterested. To person D it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
   <si>
-    <t>Person E is a woman and is 35 years old. She was born in Germany, has German parents and is a devout Christian. Person E has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing in the middle. To person E it is important to reach personal achievements and to be in charge.</t>
+    <t>Person E is a woman and is 25 years old. She was born in Germany, has German parents and is a devout Christian. Person E has completed vocational training after finishing secondary school, is unemployed and has a monthly income of 2,500€ at her disposal. She sees herself politically standing in the middle. To person E it is important to reach personal achievements and to be in charge.</t>
   </si>
   <si>
     <t>Person F is a man and is 45 years old. He was born in Germany, has Turkish parents and is a devout Christian. Person F did an apprenticeship after finishing secondary school, is employed full-time and has a monthly income of 2,500€ at his disposal. He sees himself politically standing on the left. To person F it is important to make your own decisions and lead an entertaining and adventurous life.</t>
@@ -626,10 +626,10 @@
     <t>Person G is a woman and is 45 years old. She was born in Syria, came to Germany and is a devout Muslim Person G has completed vocational training after finishing secondary school, is a homemaker and has a monthly income of 850€ at her disposal. She sees herself politically standing in the middle. To person G it is important to being tolerant and to help people around.</t>
   </si>
   <si>
-    <t>Person H is a woman and is 35 years old. She was born in Syria, came to Germany and is not religious. Person H did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically as uninterested. To person H it is important to being tolerant and to help people around.</t>
-  </si>
-  <si>
-    <t>Person I is a woman and is 35 years old. She was born in Germany, has Turkish parents and is a devout Jew. Person I has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the right. To person I it is important to make your own decisions and lead an entertaining and adventurous life.</t>
+    <t>Person H is a woman and is 25 years old. She was born in Syria, came to Germany and is not religious. Person H did an apprenticeship after finishing secondary school, is a homemaker and has a monthly income of 6,000€ at her disposal. She sees herself politically as uninterested. To person H it is important to being tolerant and to help people around.</t>
+  </si>
+  <si>
+    <t>Person I is a woman and is 25 years old. She was born in Germany, has Turkish parents and is a devout Jew. Person I has completed vocational training after finishing secondary school, is employed full-time and has a monthly income of 6,000€ at her disposal. She sees herself politically standing on the right. To person I it is important to make your own decisions and lead an entertaining and adventurous life.</t>
   </si>
 </sst>
 </file>
